--- a/data/raw_data.xlsx
+++ b/data/raw_data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Timestamp</t>
   </si>
@@ -71,6 +71,12 @@
   </si>
   <si>
     <t>asd1234</t>
+  </si>
+  <si>
+    <t>I want to reduce my glutes size. Maintain good fitness for my heart and lungs.</t>
+  </si>
+  <si>
+    <t>aditim</t>
   </si>
 </sst>
 </file>
@@ -442,6 +448,38 @@
         <v>19</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="2">
+        <v>45375.85931181713</v>
+      </c>
+      <c r="C4" s="3">
+        <v>27.0</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="3">
+        <v>63.0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>170.0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>60.0</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/data/raw_data.xlsx
+++ b/data/raw_data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>Timestamp</t>
   </si>
@@ -43,7 +43,16 @@
     <t>Additional Comments for your workout</t>
   </si>
   <si>
-    <t>Enter a random 7 characters (numerics and alphabets) without spaces</t>
+    <t>Enter a username (at least 7 characters)</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>{{ }}</t>
   </si>
   <si>
     <t>sourabh</t>
@@ -113,12 +122,18 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -343,7 +358,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="17" width="18.88"/>
+    <col customWidth="1" min="1" max="20" width="18.88"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -377,108 +392,126 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>45375.67879548611</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="B2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4">
         <v>27.0</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="3">
+      <c r="D2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="4">
         <v>72.0</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="4">
         <v>182.0</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="4">
         <v>4.0</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="4">
         <v>90.0</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="I2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
     </row>
     <row r="3">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>45375.76165179398</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="B3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="4">
         <v>25.0</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="D3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="4">
         <v>55.0</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="4">
         <v>157.0</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="4">
         <v>2.0</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="4">
         <v>60.0</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="I3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
     </row>
     <row r="4">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>45375.85931181713</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="4">
         <v>27.0</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="D4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="4">
         <v>63.0</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="4">
         <v>170.0</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="4">
         <v>2.0</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="4">
         <v>60.0</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="I4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/data/raw_data.xlsx
+++ b/data/raw_data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>Timestamp</t>
   </si>
@@ -86,6 +86,15 @@
   </si>
   <si>
     <t>aditim</t>
+  </si>
+  <si>
+    <t>Basic gym equipment (dumb-bells)</t>
+  </si>
+  <si>
+    <t>I want to include dance/zumba in my work out.</t>
+  </si>
+  <si>
+    <t>postnote</t>
   </si>
 </sst>
 </file>
@@ -122,7 +131,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -131,6 +140,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -513,6 +525,41 @@
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
     </row>
+    <row r="5">
+      <c r="A5" s="3">
+        <v>45377.60100638889</v>
+      </c>
+      <c r="C5" s="4">
+        <v>18.0</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="4">
+        <v>57.0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>167.0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>60.0</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/data/raw_data.xlsx
+++ b/data/raw_data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>Timestamp</t>
   </si>
@@ -95,6 +95,24 @@
   </si>
   <si>
     <t>postnote</t>
+  </si>
+  <si>
+    <t>Siddharth Malpani</t>
+  </si>
+  <si>
+    <t>sidmalpani</t>
+  </si>
+  <si>
+    <t>NandanJ</t>
+  </si>
+  <si>
+    <t>Anuja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Core workout and body toning </t>
+  </si>
+  <si>
+    <t>Anujamalu</t>
   </si>
 </sst>
 </file>
@@ -560,6 +578,111 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="3">
+        <v>45378.599772430556</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="4">
+        <v>22.0</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="4">
+        <v>78.0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>178.0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>60.0</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3">
+        <v>45378.63773510417</v>
+      </c>
+      <c r="C7" s="4">
+        <v>27.0</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="4">
+        <v>75.0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>172.0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>60.0</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3">
+        <v>45388.40855767361</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="4">
+        <v>27.0</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="4">
+        <v>52.0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>153.0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>60.0</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="6">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
